--- a/Data/invoicePlane.xlsx
+++ b/Data/invoicePlane.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\NewProject\POM9PMNov23\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A84EC50-20D4-44BC-ABD9-882D29878908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22429E5-636B-4354-84BD-6A4236DEDC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4F63971C-F8F4-43C2-BDF8-3C6E628F646B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{4F63971C-F8F4-43C2-BDF8-3C6E628F646B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="db Testing" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="72">
   <si>
     <t>name</t>
   </si>
@@ -79,6 +82,168 @@
   </si>
   <si>
     <t>taxCode</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>123 Main St</t>
+  </si>
+  <si>
+    <t>Suite 456</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>555-555-5555</t>
+  </si>
+  <si>
+    <t>555-555-5556</t>
+  </si>
+  <si>
+    <t>555-555-5557</t>
+  </si>
+  <si>
+    <t>johndoe@example.com</t>
+  </si>
+  <si>
+    <t>www.johndoe.com</t>
+  </si>
+  <si>
+    <t>ABCD12345</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>456 Elm St</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>123-456-7890</t>
+  </si>
+  <si>
+    <t>789-123-4567</t>
+  </si>
+  <si>
+    <t>janesmith@example.com</t>
+  </si>
+  <si>
+    <t>www.janesmith.com</t>
+  </si>
+  <si>
+    <t>WXYZ67890</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>789 Oak St</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>333-333-3333</t>
+  </si>
+  <si>
+    <t>333-333-3334</t>
+  </si>
+  <si>
+    <t>robertjohnson@example.com</t>
+  </si>
+  <si>
+    <t>www.robertjohnson.com</t>
+  </si>
+  <si>
+    <t>PQRS54321</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>21/11/2023</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Record successfully created</t>
+  </si>
+  <si>
+    <t>Client already exists!</t>
+  </si>
+  <si>
+    <t>John1</t>
+  </si>
+  <si>
+    <t>xpathActual</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,'alert')]</t>
+  </si>
+  <si>
+    <t>failureMessage</t>
+  </si>
+  <si>
+    <t>record not created</t>
+  </si>
+  <si>
+    <t>incorrecct or no error message</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>incorrect or no error message</t>
+  </si>
+  <si>
+    <t>Darren</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;String&gt; expected = new ArrayList&lt;&gt;();</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;String&gt; actual = new ArrayList&lt;&gt;();</t>
+  </si>
+  <si>
+    <t>Darren4</t>
   </si>
 </sst>
 </file>
@@ -94,12 +259,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -114,8 +285,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,68 +603,907 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF6F249-9A17-4969-84FA-55AAC2470F38}">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>90001</v>
+      </c>
+      <c r="I2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2">
+        <v>123456789</v>
+      </c>
+      <c r="R2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3">
+        <v>10001</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3">
+        <v>987654321</v>
+      </c>
+      <c r="R3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" t="s">
+        <v>61</v>
+      </c>
+      <c r="U3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4">
+        <v>60601</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4">
+        <v>543216789</v>
+      </c>
+      <c r="R4" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T4" t="s">
+        <v>61</v>
+      </c>
+      <c r="U4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D51A24D-5E1B-477C-AE03-18BBC13B4AC0}">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="19" max="19" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>90001</v>
+      </c>
+      <c r="I2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2">
+        <v>123456789</v>
+      </c>
+      <c r="R2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3">
+        <v>10001</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3">
+        <v>987654321</v>
+      </c>
+      <c r="R3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" t="s">
+        <v>66</v>
+      </c>
+      <c r="T3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FC6B27-7010-4D64-AC77-4B6F3A4150AC}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>90001</v>
+      </c>
+      <c r="I2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2">
+        <v>123456789</v>
+      </c>
+      <c r="R2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFE9289-4365-4546-84B8-61768F1F58EA}">
+  <dimension ref="A2:T12"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R5" t="s">
         <v>17</v>
+      </c>
+      <c r="S5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <v>90001</v>
+      </c>
+      <c r="I6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6">
+        <v>123456789</v>
+      </c>
+      <c r="R6" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>16</v>
+      </c>
+      <c r="R11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12">
+        <v>90001</v>
+      </c>
+      <c r="I12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12">
+        <v>123456789</v>
+      </c>
+      <c r="R12" t="s">
+        <v>30</v>
+      </c>
+      <c r="S12" t="s">
+        <v>65</v>
+      </c>
+      <c r="T12" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
